--- a/Documentation/BOM.xlsx
+++ b/Documentation/BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cameron.circo\Documents\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340358CA-46F2-471E-9DA1-96A0F8A6241F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7046EDA4-B2BF-4772-96BA-86BC70B6DC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2150CF62-6DF7-4781-A153-A6C9E82A7C25}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="94">
   <si>
     <t>Name</t>
   </si>
@@ -280,7 +280,43 @@
     <t>Connect the Pi to the machine</t>
   </si>
   <si>
-    <t>Any six conductor wire should do. In my case I used 2 runs of 4 wire thermostat wire</t>
+    <t>Cable Conduit</t>
+  </si>
+  <si>
+    <t>Protect the camera cable</t>
+  </si>
+  <si>
+    <t>Any conduit at least 0.62" wide should work</t>
+  </si>
+  <si>
+    <t>Any six conductor wire should do. In my case I used 2 runs of 4 wire thermostat wire and attached cupont connectors to the Pi end.</t>
+  </si>
+  <si>
+    <t>Relay Spacers</t>
+  </si>
+  <si>
+    <t>USed to properly mount relay</t>
+  </si>
+  <si>
+    <t>Seperate Purchase Link</t>
+  </si>
+  <si>
+    <t>Alternate 10" Display</t>
+  </si>
+  <si>
+    <t>M3 x 30mm Screw</t>
+  </si>
+  <si>
+    <t>Used to Mount PI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mcmaster </t>
+  </si>
+  <si>
+    <t>Part #91290A171</t>
+  </si>
+  <si>
+    <t>CAD</t>
   </si>
 </sst>
 </file>
@@ -359,10 +395,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -678,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295E5CC2-6EDE-4EE0-B9BE-C8209EA113E1}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -716,15 +752,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -764,7 +800,7 @@
         <v>6.99</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E29" si="0">C4*D4</f>
+        <f t="shared" ref="E4:E32" si="0">C4*D4</f>
         <v>6.99</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -929,6 +965,9 @@
       <c r="F11" t="s">
         <v>22</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -1019,6 +1058,9 @@
       <c r="F15" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="G15" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -1049,7 +1091,7 @@
         <v>72</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17">
         <v>5.95</v>
@@ -1057,7 +1099,7 @@
       <c r="E17">
         <v>5.95</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G17" t="s">
@@ -1080,160 +1122,158 @@
       <c r="E18">
         <v>2.62</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>75</v>
       </c>
       <c r="G18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>7.17</v>
+      </c>
+      <c r="E19">
+        <v>7.17</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C19">
+      <c r="C21">
         <v>3</v>
       </c>
-      <c r="D19">
+      <c r="D21">
         <v>6.98</v>
       </c>
-      <c r="E19">
+      <c r="E21">
         <v>6.98</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="22" spans="1:7" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
         <v>15.99</v>
       </c>
-      <c r="E20">
+      <c r="E22">
         <v>15.99</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>5.99</v>
-      </c>
-      <c r="E22">
-        <f>C22*D22</f>
-        <v>5.99</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="G22" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>5.99</v>
+      </c>
+      <c r="E24">
+        <f>C24*D24</f>
+        <v>5.99</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
         <v>19.989999999999998</v>
       </c>
-      <c r="E23">
+      <c r="E25">
         <f t="shared" si="0"/>
         <v>19.989999999999998</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>12.78</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>12.78</v>
-      </c>
-      <c r="F24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>6.46</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>6.46</v>
-      </c>
-      <c r="F25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
         <v>44</v>
@@ -1242,22 +1282,22 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>12.82</v>
+        <v>12.78</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>12.82</v>
+        <v>12.78</v>
       </c>
       <c r="F26" t="s">
         <v>45</v>
       </c>
       <c r="G26" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>52</v>
+      <c r="A27" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="B27" t="s">
         <v>44</v>
@@ -1266,22 +1306,22 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>6.31</v>
+        <v>6.46</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>6.31</v>
+        <v>6.46</v>
       </c>
       <c r="F27" t="s">
         <v>45</v>
       </c>
       <c r="G27" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
         <v>44</v>
@@ -1290,174 +1330,180 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>12.82</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.82</v>
       </c>
       <c r="F28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>6.31</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>6.31</v>
+      </c>
+      <c r="F29" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="G30" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
         <v>15.99</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <f t="shared" si="0"/>
         <v>15.99</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>129</v>
-      </c>
-      <c r="E31">
-        <f t="shared" ref="E31:E38" si="1">C31*D31</f>
-        <v>129</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>18.989999999999998</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>129</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ref="E34:E41" si="1">C34*D34</f>
+        <v>129</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+    <row r="35" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
         <v>24.99</v>
       </c>
-      <c r="E32">
+      <c r="E35">
         <f t="shared" si="1"/>
         <v>24.99</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1475,10 +1521,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1494,42 +1540,111 @@
         <v>22</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>8.99</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
         <v>8.99</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>8.99</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G41" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A33:G33"/>
     <mergeCell ref="A2:G2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" xr:uid="{8852C4E7-9634-4109-89C0-AE7D7E9FE0CD}"/>
-    <hyperlink ref="F22" r:id="rId2" xr:uid="{A76F9D87-936C-4C9E-ADF1-49263C46ADEE}"/>
+    <hyperlink ref="F24" r:id="rId2" xr:uid="{A76F9D87-936C-4C9E-ADF1-49263C46ADEE}"/>
     <hyperlink ref="F4" r:id="rId3" xr:uid="{5DE7247E-92BF-4563-B5BC-877FE20A372D}"/>
     <hyperlink ref="F5" r:id="rId4" xr:uid="{EA6F503A-68C0-4A52-B42A-50ADCC1908A0}"/>
     <hyperlink ref="F6" r:id="rId5" xr:uid="{0DB30270-A1E4-42ED-99E0-4FF590067634}"/>
@@ -1537,15 +1652,20 @@
     <hyperlink ref="F14" r:id="rId7" xr:uid="{B073795C-B068-4EBE-89D7-579CAFA50D61}"/>
     <hyperlink ref="F15" r:id="rId8" xr:uid="{FAE9B6E9-4089-4877-979B-A9F41AA510CB}"/>
     <hyperlink ref="F16" r:id="rId9" xr:uid="{FF3AE544-D8C8-455E-B508-8928155E6320}"/>
-    <hyperlink ref="F23" r:id="rId10" xr:uid="{CECB48F0-5E65-49BE-859F-CDDADCB76BF0}"/>
-    <hyperlink ref="F29" r:id="rId11" xr:uid="{72ED6613-9CD0-4853-86AD-40F6A647DB14}"/>
-    <hyperlink ref="F31" r:id="rId12" xr:uid="{219FEFE0-84EE-4CC6-B480-5E72C7FF679A}"/>
-    <hyperlink ref="F32" r:id="rId13" xr:uid="{A8CE5AC4-45AF-408B-908C-8BD5DA4930C1}"/>
-    <hyperlink ref="F38" r:id="rId14" xr:uid="{4BA99510-6D51-4B15-994B-B0A2966B0E69}"/>
-    <hyperlink ref="F19" r:id="rId15" xr:uid="{CAF99550-7C40-4446-B27D-C85C42B689A6}"/>
-    <hyperlink ref="F20" r:id="rId16" xr:uid="{3AE89C92-2A49-4296-9F2D-9AE37C8EDE56}"/>
+    <hyperlink ref="F25" r:id="rId10" xr:uid="{CECB48F0-5E65-49BE-859F-CDDADCB76BF0}"/>
+    <hyperlink ref="F31" r:id="rId11" xr:uid="{72ED6613-9CD0-4853-86AD-40F6A647DB14}"/>
+    <hyperlink ref="F34" r:id="rId12" xr:uid="{219FEFE0-84EE-4CC6-B480-5E72C7FF679A}"/>
+    <hyperlink ref="F35" r:id="rId13" xr:uid="{A8CE5AC4-45AF-408B-908C-8BD5DA4930C1}"/>
+    <hyperlink ref="F41" r:id="rId14" xr:uid="{4BA99510-6D51-4B15-994B-B0A2966B0E69}"/>
+    <hyperlink ref="F21" r:id="rId15" xr:uid="{CAF99550-7C40-4446-B27D-C85C42B689A6}"/>
+    <hyperlink ref="F22" r:id="rId16" xr:uid="{3AE89C92-2A49-4296-9F2D-9AE37C8EDE56}"/>
+    <hyperlink ref="F32" r:id="rId17" xr:uid="{9A6DE0BC-CA34-4524-9D79-86B911CDF67B}"/>
+    <hyperlink ref="G11" r:id="rId18" xr:uid="{CAA72A61-C8B0-41DC-8842-E208870CFEC1}"/>
+    <hyperlink ref="G15" r:id="rId19" xr:uid="{945B0ED9-4AF6-40E5-ADBF-D7B24F5C14AF}"/>
+    <hyperlink ref="G20" r:id="rId20" xr:uid="{92FF5B2E-DA68-4226-AFE0-777F6E6ED4BE}"/>
+    <hyperlink ref="G30" r:id="rId21" xr:uid="{367E131C-3249-4D7D-A33A-7476E78FE4EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
--- a/Documentation/BOM.xlsx
+++ b/Documentation/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cameron.circo\Documents\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7046EDA4-B2BF-4772-96BA-86BC70B6DC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC471437-58E8-4957-BAF7-CFB8FA70F2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2150CF62-6DF7-4781-A153-A6C9E82A7C25}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="95">
   <si>
     <t>Name</t>
   </si>
@@ -304,19 +304,22 @@
     <t>Alternate 10" Display</t>
   </si>
   <si>
-    <t>M3 x 30mm Screw</t>
-  </si>
-  <si>
-    <t>Used to Mount PI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mcmaster </t>
-  </si>
-  <si>
-    <t>Part #91290A171</t>
-  </si>
-  <si>
     <t>CAD</t>
+  </si>
+  <si>
+    <t>M4 x 20mm screw</t>
+  </si>
+  <si>
+    <t>Mount the Pi to the base</t>
+  </si>
+  <si>
+    <t>M4 Nut</t>
+  </si>
+  <si>
+    <t>Part #91274A121</t>
+  </si>
+  <si>
+    <t>Part #90592A090</t>
   </si>
 </sst>
 </file>
@@ -714,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295E5CC2-6EDE-4EE0-B9BE-C8209EA113E1}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -800,7 +803,7 @@
         <v>6.99</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E32" si="0">C4*D4</f>
+        <f t="shared" ref="E4:E33" si="0">C4*D4</f>
         <v>6.99</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -1131,149 +1134,150 @@
     </row>
     <row r="19" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19">
-        <v>7.17</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>7.17</v>
+        <v>0</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>6.98</v>
       </c>
       <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>6.98</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>6.98</v>
+        <v>15.99</v>
       </c>
       <c r="E21">
-        <v>6.98</v>
+        <v>15.99</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>15.99</v>
-      </c>
-      <c r="E22">
-        <v>15.99</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="G21" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>5.99</v>
+      </c>
+      <c r="E23">
+        <f>C23*D23</f>
+        <v>5.99</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>5.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="E24">
-        <f>C24*D24</f>
-        <v>5.99</v>
+        <f t="shared" si="0"/>
+        <v>19.989999999999998</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25">
-        <v>19.989999999999998</v>
+        <v>12.78</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>19.989999999999998</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>8</v>
+        <v>12.78</v>
+      </c>
+      <c r="F25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>47</v>
+      <c r="A26" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="B26" t="s">
         <v>44</v>
@@ -1282,22 +1286,22 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>12.78</v>
+        <v>6.46</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>12.78</v>
+        <v>6.46</v>
       </c>
       <c r="F26" t="s">
         <v>45</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>48</v>
+      <c r="A27" t="s">
+        <v>51</v>
       </c>
       <c r="B27" t="s">
         <v>44</v>
@@ -1306,225 +1310,225 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>6.46</v>
+        <v>12.82</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>6.46</v>
+        <v>12.82</v>
       </c>
       <c r="F27" t="s">
         <v>45</v>
       </c>
       <c r="G27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>44</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>12.82</v>
+        <v>6.31</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
-        <v>12.82</v>
+        <v>6.31</v>
       </c>
       <c r="F28" t="s">
         <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>6.31</v>
+        <v>5.71</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
-        <v>6.31</v>
+        <v>5.71</v>
       </c>
       <c r="F29" t="s">
         <v>45</v>
       </c>
-      <c r="G29" t="s">
-        <v>53</v>
+      <c r="G29" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>3.33</v>
+      </c>
+      <c r="E30">
+        <v>3.33</v>
+      </c>
+      <c r="F30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>54</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>44</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
         <v>55</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>15.99</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
-        <v>15.99</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" t="s">
-        <v>58</v>
+      <c r="G31" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32">
-        <v>18.989999999999998</v>
+        <v>15.99</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>18.989999999999998</v>
+        <v>15.99</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>18.989999999999998</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>14</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>60</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
         <v>129</v>
       </c>
-      <c r="E34">
-        <f t="shared" ref="E34:E41" si="1">C34*D34</f>
+      <c r="E35">
+        <f t="shared" ref="E35:E42" si="1">C35*D35</f>
         <v>129</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    <row r="36" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
         <v>24.99</v>
       </c>
-      <c r="E35">
+      <c r="E36">
         <f t="shared" si="1"/>
         <v>24.99</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F36" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1539,16 +1543,13 @@
       <c r="F37" t="s">
         <v>22</v>
       </c>
-      <c r="G37" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1564,15 +1565,15 @@
         <v>22</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1587,13 +1588,16 @@
       <c r="F39" t="s">
         <v>22</v>
       </c>
+      <c r="G39" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1608,43 +1612,64 @@
       <c r="F40" t="s">
         <v>22</v>
       </c>
-      <c r="G40" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41">
-        <v>8.99</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
         <v>8.99</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>8.99</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G42" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A34:G34"/>
     <mergeCell ref="A2:G2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" xr:uid="{8852C4E7-9634-4109-89C0-AE7D7E9FE0CD}"/>
-    <hyperlink ref="F24" r:id="rId2" xr:uid="{A76F9D87-936C-4C9E-ADF1-49263C46ADEE}"/>
+    <hyperlink ref="F23" r:id="rId2" xr:uid="{A76F9D87-936C-4C9E-ADF1-49263C46ADEE}"/>
     <hyperlink ref="F4" r:id="rId3" xr:uid="{5DE7247E-92BF-4563-B5BC-877FE20A372D}"/>
     <hyperlink ref="F5" r:id="rId4" xr:uid="{EA6F503A-68C0-4A52-B42A-50ADCC1908A0}"/>
     <hyperlink ref="F6" r:id="rId5" xr:uid="{0DB30270-A1E4-42ED-99E0-4FF590067634}"/>
@@ -1652,18 +1677,18 @@
     <hyperlink ref="F14" r:id="rId7" xr:uid="{B073795C-B068-4EBE-89D7-579CAFA50D61}"/>
     <hyperlink ref="F15" r:id="rId8" xr:uid="{FAE9B6E9-4089-4877-979B-A9F41AA510CB}"/>
     <hyperlink ref="F16" r:id="rId9" xr:uid="{FF3AE544-D8C8-455E-B508-8928155E6320}"/>
-    <hyperlink ref="F25" r:id="rId10" xr:uid="{CECB48F0-5E65-49BE-859F-CDDADCB76BF0}"/>
-    <hyperlink ref="F31" r:id="rId11" xr:uid="{72ED6613-9CD0-4853-86AD-40F6A647DB14}"/>
-    <hyperlink ref="F34" r:id="rId12" xr:uid="{219FEFE0-84EE-4CC6-B480-5E72C7FF679A}"/>
-    <hyperlink ref="F35" r:id="rId13" xr:uid="{A8CE5AC4-45AF-408B-908C-8BD5DA4930C1}"/>
-    <hyperlink ref="F41" r:id="rId14" xr:uid="{4BA99510-6D51-4B15-994B-B0A2966B0E69}"/>
-    <hyperlink ref="F21" r:id="rId15" xr:uid="{CAF99550-7C40-4446-B27D-C85C42B689A6}"/>
-    <hyperlink ref="F22" r:id="rId16" xr:uid="{3AE89C92-2A49-4296-9F2D-9AE37C8EDE56}"/>
-    <hyperlink ref="F32" r:id="rId17" xr:uid="{9A6DE0BC-CA34-4524-9D79-86B911CDF67B}"/>
+    <hyperlink ref="F24" r:id="rId10" xr:uid="{CECB48F0-5E65-49BE-859F-CDDADCB76BF0}"/>
+    <hyperlink ref="F32" r:id="rId11" xr:uid="{72ED6613-9CD0-4853-86AD-40F6A647DB14}"/>
+    <hyperlink ref="F35" r:id="rId12" xr:uid="{219FEFE0-84EE-4CC6-B480-5E72C7FF679A}"/>
+    <hyperlink ref="F36" r:id="rId13" xr:uid="{A8CE5AC4-45AF-408B-908C-8BD5DA4930C1}"/>
+    <hyperlink ref="F42" r:id="rId14" xr:uid="{4BA99510-6D51-4B15-994B-B0A2966B0E69}"/>
+    <hyperlink ref="F20" r:id="rId15" xr:uid="{CAF99550-7C40-4446-B27D-C85C42B689A6}"/>
+    <hyperlink ref="F21" r:id="rId16" xr:uid="{3AE89C92-2A49-4296-9F2D-9AE37C8EDE56}"/>
+    <hyperlink ref="F33" r:id="rId17" xr:uid="{9A6DE0BC-CA34-4524-9D79-86B911CDF67B}"/>
     <hyperlink ref="G11" r:id="rId18" xr:uid="{CAA72A61-C8B0-41DC-8842-E208870CFEC1}"/>
     <hyperlink ref="G15" r:id="rId19" xr:uid="{945B0ED9-4AF6-40E5-ADBF-D7B24F5C14AF}"/>
-    <hyperlink ref="G20" r:id="rId20" xr:uid="{92FF5B2E-DA68-4226-AFE0-777F6E6ED4BE}"/>
-    <hyperlink ref="G30" r:id="rId21" xr:uid="{367E131C-3249-4D7D-A33A-7476E78FE4EF}"/>
+    <hyperlink ref="G19" r:id="rId20" xr:uid="{92FF5B2E-DA68-4226-AFE0-777F6E6ED4BE}"/>
+    <hyperlink ref="G31" r:id="rId21" xr:uid="{367E131C-3249-4D7D-A33A-7476E78FE4EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId22"/>
